--- a/产品需求.xlsx
+++ b/产品需求.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A594CA-2508-40BD-8D95-040BE31F88DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EEBC4-4A0F-46A7-B8AE-9D23B1682239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="70">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,9 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,42 +502,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -866,551 +866,551 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="13" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="13"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="13"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="13"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="13"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="13"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="13"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="13"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="13"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="15" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
